--- a/Mifos Automation Excels/Client/3118-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-%DISB-AMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3118-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-%DISB-AMT-Regular-CASH-Makerepayment1.xlsx
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,9 +336,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +662,7 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>42036</v>
       </c>
     </row>
@@ -679,7 +676,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,25 +715,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1581.47</v>
+      <c r="E2" s="10">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="F2" s="7">
+        <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>685.07</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>101.92</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -745,18 +742,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>685.07</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="7">
-        <v>193.97</v>
+        <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -765,7 +762,6 @@
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>A4-B4</f>
         <v>0</v>
       </c>
       <c r="F4" s="7">
@@ -774,10 +770,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -803,7 +799,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A2" sqref="A2:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,17 +886,18 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -930,18 +927,21 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>987.74</v>
-      </c>
-      <c r="L3" s="18">
-        <v>987.74</v>
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="7">
+        <v>887.72</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
       <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -987,8 +987,11 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
       <c r="P4" s="7">
-        <v>888.57</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1019,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -1030,8 +1033,11 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
       <c r="P5" s="7">
-        <v>888.66</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -1073,8 +1079,11 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
       <c r="P6" s="7">
-        <v>888.47</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1105,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
@@ -1116,8 +1125,11 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
       <c r="P7" s="7">
-        <v>888.41</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1159,8 +1171,11 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
       <c r="P8" s="7">
-        <v>888.31</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1191,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1202,8 +1217,11 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
       <c r="P9" s="7">
-        <v>888.25</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1234,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1245,8 +1263,11 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
       <c r="P10" s="7">
-        <v>888.16</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1277,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1288,8 +1309,11 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
       <c r="P11" s="7">
-        <v>888.06</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1320,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -1331,8 +1355,11 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
       <c r="P12" s="7">
-        <v>887.99</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1363,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -1374,8 +1401,11 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
       <c r="P13" s="7">
-        <v>887.89</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1406,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>887.74</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1417,8 +1447,11 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
       <c r="P14" s="7">
-        <v>903.58</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1465,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1517,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1516,7 +1549,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1548,7 +1581,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1588,7 +1621,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1813,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I4"/>
+      <selection activeCell="A2" sqref="A2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Client/3118-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-%DISB-AMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3118-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-%DISB-AMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -796,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,12 +817,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,17 +863,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -899,8 +901,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -938,17 +941,18 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -984,17 +988,18 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7">
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1030,17 +1035,18 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1076,17 +1082,18 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1122,17 +1129,18 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1168,17 +1176,18 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1214,17 +1223,18 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1260,17 +1270,18 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1306,17 +1317,18 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1352,17 +1364,18 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1398,17 +1411,18 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1444,13 +1458,14 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>0</v>
       </c>
       <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>903.49</v>
       </c>
     </row>
@@ -1812,7 +1827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J5"/>
     </sheetView>
   </sheetViews>
